--- a/PRODUTOS/Perfumaria/Perfumaria - Absorventes.xlsx
+++ b/PRODUTOS/Perfumaria/Perfumaria - Absorventes.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:F23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,6 +447,11 @@
           <t>Imagem</t>
         </is>
       </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>EAN</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -461,17 +466,22 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Absorvente Externo Intimus Tripla Proteção Suave Com Abas Leve 16 Pague 14</t>
+          <t>Absorvente Clin Off Cob Suave Sem Abas 8 Unidades</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 3,99</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fa9b2340-197e-4d27-9dd8-30c68fe1f297.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c763840e-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7898067950955</t>
         </is>
       </c>
     </row>
@@ -488,17 +498,22 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Absorvente Intimus Tripla Proteção Cobertura Extra Suave Com Abas Com 32 Unidades</t>
+          <t>Protetor Diario Carefree Neutralize 40un</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f511dc9b-9e20-47e1-94af-9c8f46087174.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b02f2ccc-ccc9-44bf-a74f-0afbf5be1ed1.jpg</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7891010009618</t>
         </is>
       </c>
     </row>
@@ -515,17 +530,22 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Absorvente Intimus Gel Tripla Proteção Suave Com 32 Unidades</t>
+          <t>Prot Diario Carefree C/perf C/80</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>R$ 17,99</t>
+          <t>R$ 29,99</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d574172e-5c78-4b24-bb6c-b5fd3b660546.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6e4aab62-3c87-4f54-9168-d1a86a2f61dd.jpg</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7891010604349</t>
         </is>
       </c>
     </row>
@@ -542,7 +562,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Absorvente Intimus Noturno Cobertura Suave Com Abas Com 30 Unidades</t>
+          <t>Prot Diario Carefree Todo Dia C/80</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -552,7 +572,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/29488f47-4f55-4466-963e-6f1c911431e6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a03db0f3-ae7a-4ad0-89f2-0e97ffd4f8b6.jpg</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7891010604349</t>
         </is>
       </c>
     </row>
@@ -569,17 +594,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Absorvente Intimus Com Abas Malha Suave Noturno Gel 8 Unidades</t>
+          <t>Absorvente Sempre Livre Adapt Plus Cobertura Suave Com Abas 32 Unidades</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 25,99</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6d8d9ac-5b3a-4608-8c28-dc735edcd264.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85e3b2f5-4438-4090-adfd-1c82b0d47ee4.jpg</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7891010503031</t>
         </is>
       </c>
     </row>
@@ -596,17 +626,22 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Absorvente Intimus Noturno Cobertura Seca Com Abas Com 30 Unidades</t>
+          <t>Absorvente Sempre Livre Adapt Plus Noite E Dia Cobertura Suave Com Abas 32 Unidades</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>R$ 29,99</t>
+          <t>R$ 35,99</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0efce4cc-61bf-4ab2-b0f0-7b6a893c2942.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/79aabcc6-4942-472e-b577-c8b32732f76d.jpg</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7891010503031</t>
         </is>
       </c>
     </row>
@@ -623,17 +658,22 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Absorvente Externo Intimus Tripla Proteção Seca Com Abas Leve 16 Pague 14</t>
+          <t>Absorvente Sempre Livre Adapt Cobertura Suave Com Abas Com 8 Unidades</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bef9a034-b2bc-444b-977f-073dea13faa6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db134dfa-26fa-4fa5-9f7d-8ce9e932a402.jpg</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7891010503031</t>
         </is>
       </c>
     </row>
@@ -650,17 +690,22 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Absorvente Intimus Com Abas Malha Seca Noturno Gel 8 Unidades</t>
+          <t>Absorvente Sempre Livre Adapt Suave 32 Unidades Com Abas Leve Mais Pague Menos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 19,99</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6574b906-38d5-4f67-b422-99bbb67bab3a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1acdcca-0efd-48a9-b681-1b07a1fc4f6a.jpg</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7891010503031</t>
         </is>
       </c>
     </row>
@@ -677,17 +722,22 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Absorvente Intimus Sem Abas Malha Suave Gel 8 Unidades</t>
+          <t>Absorvente Interno Intimus Mini 8 Unidades</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 10,99</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fec40de1-e22c-4bb1-be5c-015e4141e762.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a8b5ce0-2b0f-4d05-ae10-9b85b631b69a.jpg</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>7896007541850</t>
         </is>
       </c>
     </row>
@@ -704,17 +754,22 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Absorvente Interno Intimus Super 8 Unidades</t>
+          <t>Absorvente Sempre Livre Adapt Sem Abas Cobertura Suave Com 8 Unidades</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/dec19ad9-515e-4226-a828-2242aad7c5b7.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/64549c33-68cb-4269-9749-dbc9f5c8787d.jpg</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>7891010503031</t>
         </is>
       </c>
     </row>
@@ -731,17 +786,22 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Absorvente Sempre Livre Adapt Cobertura Suave Com Abas Com 8 Unidades</t>
+          <t>Protetor Diario Carefree Original 40un</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/db134dfa-26fa-4fa5-9f7d-8ce9e932a402.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5c0e26f-5b0b-4be4-b7dd-a619fb4b6de3.jpg</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>7891010009618</t>
         </is>
       </c>
     </row>
@@ -758,17 +818,22 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Protetor Diario Carefree Brisa C/ 40</t>
+          <t>Protetor Carefree Protecao C/15 S/ Perf</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/767f7bdc-7b37-414d-af99-9f70fff9cfd9.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e38d417-ff78-40ac-ada9-38cbad69165d.jpg</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>7891010015268</t>
         </is>
       </c>
     </row>
@@ -785,17 +850,22 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Protetor Diario Carefree Neutralize 40un</t>
+          <t>Absorvente Sempre Livre Adapt Plus Ultra Suave Com Abas Com 8 Unidades</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b02f2ccc-ccc9-44bf-a74f-0afbf5be1ed1.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b5d65b8-bb24-49d0-9733-6626b3044354.jpg</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7891010503031</t>
         </is>
       </c>
     </row>
@@ -812,17 +882,22 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Absorvente Intimus Tripla Proteção Extra Suave Com Abas Com 8 Unidades</t>
+          <t>Absorvente Sempre Livre Adapt Plus Noite E Dia Suave Com Abas Com 8 Unidades</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0abada87-09cc-4c67-9899-dd9f5f6d4c40.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5b2e9ed-adfb-4222-905f-6b8f126d379f.jpg</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7891010503031</t>
         </is>
       </c>
     </row>
@@ -839,17 +914,22 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Absorvente Sempre Livre Adapt Cobertura Suave Com Abas Com 16 Unidades</t>
+          <t>Protetor Diario Carefree Brisa C/ 40</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>R$ 9,99</t>
+          <t>R$ 15,99</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef8d0ef3-34cf-4f62-818e-c7ff655030a5.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/767f7bdc-7b37-414d-af99-9f70fff9cfd9.jpg</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7891010087807</t>
         </is>
       </c>
     </row>
@@ -866,17 +946,22 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Absorvente Intimus Normal Seca Com Abas Com 8 Unidades</t>
+          <t>Protetor Diario Carefree Brisa S/p 15un</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 8,99</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8fc78a0-332d-4eea-ad07-c89dbf7bd469.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31a5f7f1-be84-4838-aaf3-63d0d82d0894.jpg</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>7891010087807</t>
         </is>
       </c>
     </row>
@@ -893,7 +978,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Absorvente Interno Ob Procomfort Super 8 Unidades</t>
+          <t>Absorvente Sempre Livre Adapt Cobertura Suave Com Abas Com 16 Unidades</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -903,7 +988,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a5636698-496d-4c18-9e2c-2a7bd31b0dd6.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ef8d0ef3-34cf-4f62-818e-c7ff655030a5.jpg</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7891010503031</t>
         </is>
       </c>
     </row>
@@ -920,17 +1010,22 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Prot Diario Intimus Days C/ 15</t>
+          <t>Absorvente Intimus Sem Abas Malha Suave Gel 8 Unidades</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>R$ 7,49</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed0832e2-bebd-4378-9a0c-c2d6a12727bb.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/fec40de1-e22c-4bb1-be5c-015e4141e762.jpg</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7896007544042</t>
         </is>
       </c>
     </row>
@@ -947,17 +1042,22 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Absorvente Interno Intimus Médio 8 Unidades</t>
+          <t>Absorvente Intimus Normal Seca Com Abas Com 8 Unidades</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>R$ 12,99</t>
+          <t>R$ 5,99</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d8e5be30-35fa-47aa-82f1-ad4792b9b70a.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a8fc78a0-332d-4eea-ad07-c89dbf7bd469.jpg</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>7896007540600</t>
         </is>
       </c>
     </row>
@@ -974,17 +1074,22 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Protetor Diario Carefree Original 40un</t>
+          <t>Absorvente Intimus Com Abas Malha Suave Noturno Gel 8 Unidades</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>R$ 15,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c5c0e26f-5b0b-4be4-b7dd-a619fb4b6de3.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d6d8d9ac-5b3a-4608-8c28-dc735edcd264.jpg</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>7896007544042</t>
         </is>
       </c>
     </row>
@@ -1001,17 +1106,22 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Absorvente Intimus Tripla Proteção Seca Sem Abas Com 8 Unidades</t>
+          <t>Absorvente Intimus Com Abas Malha Seca Noturno Gel 8 Unidades</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>R$ 5,99</t>
+          <t>R$ 9,99</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a53049a1-d621-422a-819e-d9259971ecdc.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6574b906-38d5-4f67-b422-99bbb67bab3a.jpg</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7896007544059</t>
         </is>
       </c>
     </row>
@@ -1028,854 +1138,22 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Absorvente Always Super Proteção Seca Com Abas 32 Unidades</t>
+          <t>Absorvente Intimus Tripla Proteção Cobertura Extra Suave Com Abas Com 32 Unidades</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>R$ 19,99</t>
+          <t>R$ 17,99</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/af7baea8-fa32-4924-be08-4aa65a45404c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Absorvente Intimus Noturno Cobertura Suave Com Abas Com 16 Unidades</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>R$ 18,99</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/05bb20e7-8cc1-4ecb-95f5-fc6c666ab5a0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Absorvente Always Super Proteção Suave Com Abas 8 Unidades</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/814ab944-814e-41f9-b383-85cf6b8fdbea.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Absorvente Always Super Proteção Seca Com Abas 8 Unidades</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/4427a65f-df0c-4d38-9280-40fd717fea42.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>Absorvente Sempre Livre Adapt Sem Abas Cobertura Suave Com 8 Unidades</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/64549c33-68cb-4269-9749-dbc9f5c8787d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>Absorvente Noturno Always Noites Tranquilas Seca Com Abas 32 Unidades</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>R$ 36,99</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e77c1520-2a23-4cc2-9d43-271bc18631f0.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>Absorvente Clin Off Cob Suave Sem Abas 8 Unidades</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c763840e-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>Prot Diario Carefree Todo Dia C/80</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/a03db0f3-ae7a-4ad0-89f2-0e97ffd4f8b6.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Absorvente Com Abas Suave Super Proteção Always Pacote 32 Unidades Leve Mais Pague Menos</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c7d19ee9-8080-4be2-9ef1-62682461dd0e.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Protetor Diário Intimus Days Sem Abas Com Perfume 80 Unidades Leve Mais Pague Menos</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ed4be4a2-b086-4a13-b462-a4b84a862cb3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Absorvente Sempre Livre Adapt Plus Noite E Dia Suave Com Abas Com 8 Unidades</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d5b2e9ed-adfb-4222-905f-6b8f126d379f.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Protetor Diário Intimus Ultra Flexível Com 40 Unidades</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>R$ 19,79</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b8a03a3b-54a9-467d-9b6c-983041232bb3.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Absorvente Sempre Livre Adapt Plus Ultra Suave Com Abas Com 8 Unidades</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>R$ 5,99</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9b5d65b8-bb24-49d0-9733-6626b3044354.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Absorvente Always S Protecao C/abas 16un Suav</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/b6e60f8b-8032-4473-a5e0-e08cacb60d5d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>Absorvente Sempre Livre Adapt Plus Cobertura Suave Com Abas 32 Unidades</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/85e3b2f5-4438-4090-adfd-1c82b0d47ee4.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>Absorvente Always Super Proteção Seca Sem Abas 8 Unidades</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>R$ 6,99</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/ec87be6f-2bd1-4025-af1c-d62172cb14b1.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>Protetor Diario Carefree Brisa S/p 15un</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/31a5f7f1-be84-4838-aaf3-63d0d82d0894.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>Absorvente Intimus Ultrafino Tecnologia Antibacteriana Com Abas Com 14 Unidades</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/e024dadf-43be-47ee-9632-08d7b83ee994.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>Absorvente Clin Off Cob Suave Com Abas 8 Unidades</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>R$ 3,99</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/c73e221d-c0b2-11e7-a6aa-063e6e4e9f3a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>Prot Diario Carefree C/perf C/80</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>R$ 29,99</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6e4aab62-3c87-4f54-9168-d1a86a2f61dd.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Absorvente Always Super Proteção Seca Com Abas 16 Unidades</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>R$ 12,99</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/bf551137-79fe-4e29-8365-8643720a7495.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>Protetor Diário Intimus Days Sem Abas Sem Perfume 80 Unidades Leve Mais Pague Menos</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/d1d892f1-0471-42ec-a796-fb899254ff04.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>Absorvente Sempre Livre Adapt Suave 32 Unidades Com Abas Leve Mais Pague Menos</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>R$ 19,99</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f1acdcca-0efd-48a9-b681-1b07a1fc4f6a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
-        <is>
-          <t>Absorvente Interno Ob Original Médio Com 10 Unidades</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>R$ 9,99</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/69c48e53-8431-416f-8cac-6edb94bfa87a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>Absorvente Externo Intimus Dia E Noite Suave Com Abas 28 Unidades</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>R$ 28,99</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/0404f0c7-6c8e-4b1a-a7ff-409b3ac58b9a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>Protetor Carefree Protecao C/15 S/ Perf</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>R$ 8,99</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/2e38d417-ff78-40ac-ada9-38cbad69165d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>Absorvente Sempre Livre Adapt Plus Noite E Dia Cobertura Suave Com Abas 32 Unidades</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>R$ 35,99</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/79aabcc6-4942-472e-b577-c8b32732f76d.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>Absorvente Interno Intimus Mini 8 Unidades</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/9a8b5ce0-2b0f-4d05-ae10-9b85b631b69a.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>Absorvente Intimus Ultrafino Tecnologia Antibacteriana Com Abas Com 28 Unidades</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>R$ 21,99</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/09509c53-a07e-41eb-b1a8-b5121405682c.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>Absorvente C/ Abas Sempre Livre Adapt Plus C/32 Un Leve Mais Pague Menos</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>R$ 39,99</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/6cb9322d-eac4-4aff-8694-9743b7642822.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>Absorvente Interno Médio Comfort 16un Leve Mais Pague Menos</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>R$ 25,99</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/000d477e-c60b-434a-93f7-aba07894108b.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Perfumaria</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Absorventes</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>Absorvente Always Mx Prot Pink C/abas 8un Suav</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>R$ 10,99</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/13884e9f-c632-42e3-9e1f-1d23ed5dbfd8.jpg</t>
+          <t>https://produto-assets-vipcommerce-com-br.br-se1.magaluobjects.com/250x250/f511dc9b-9e20-47e1-94af-9c8f46087174.jpg</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>7896007544042</t>
         </is>
       </c>
     </row>
